--- a/size_glacial/smallbirds/Corvus/Corvus.xlsx
+++ b/size_glacial/smallbirds/Corvus/Corvus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TMT" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -443,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -465,12 +465,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,1165 +524,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF878787"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$146</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
-                <c:pt idx="0">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>48.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>46.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>49.7</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>48.4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>46.9</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>46.3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>45.1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>46.9</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>41.8</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>49.3</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>50.2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>46.2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>45.6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>49.3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>45.6</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>43.7</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>39.6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>39.9</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>47.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>58.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="38399910"/>
-        <c:axId val="98273855"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="38399910"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98273855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98273855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38399910"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>482400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8392320" y="1168560"/>
-        <a:ext cx="11841120" cy="6292440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1698,13 +541,13 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2888888888889"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,11 +3443,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>